--- a/flows/AMTR_fund_flow_data.xlsx
+++ b/flows/AMTR_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B842"/>
+  <dimension ref="A1:B858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8855,6 +8855,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
